--- a/pareto/case_studies/strategic_treatment_demo_modified.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javal\Desktop\Internship\PARETO\project-pareto_forked\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F938042D-EEEE-4A4B-B80F-04AA3C78ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13D80-3062-42A3-875A-0394E8CC90E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="58" activeTab="62" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -31370,7 +31370,7 @@
   <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:BA3"/>
+      <selection activeCell="B6" sqref="B6:BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -31553,160 +31553,160 @@
         <v>121</v>
       </c>
       <c r="B3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="U3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="X3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AB3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AI3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AJ3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AK3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AM3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AO3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AR3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AS3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AV3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AW3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AX3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AY3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AZ3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="BA3" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -31714,160 +31714,160 @@
         <v>122</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AV4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AX4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AY4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ4" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="31">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -31875,160 +31875,160 @@
         <v>123</v>
       </c>
       <c r="B5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AI5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AJ5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AL5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AM5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AS5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AV5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AX5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AY5" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ5" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="31">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -32036,160 +32036,160 @@
         <v>124</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="X6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Y6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Z6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AB6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AC6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AE6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AF6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AG6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AH6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AI6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AJ6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AK6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AL6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AM6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AN6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AO6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AP6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AQ6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AR6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AS6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AT6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AU6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AV6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AW6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AX6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AY6" s="9">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AZ6" s="9">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="31">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>0.3</v>
       </c>
       <c r="BD6" s="82"/>
     </row>
@@ -32197,161 +32197,161 @@
       <c r="A7" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1</v>
-      </c>
-      <c r="N7" s="10">
-        <v>1</v>
-      </c>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1</v>
-      </c>
-      <c r="R7" s="10">
-        <v>1</v>
-      </c>
-      <c r="S7" s="10">
-        <v>1</v>
-      </c>
-      <c r="T7" s="10">
-        <v>1</v>
-      </c>
-      <c r="U7" s="10">
-        <v>1</v>
-      </c>
-      <c r="V7" s="10">
-        <v>1</v>
-      </c>
-      <c r="W7" s="10">
-        <v>1</v>
-      </c>
-      <c r="X7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="10">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="11">
-        <v>1</v>
+      <c r="B7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="BA7" s="9">
+        <v>0.5</v>
       </c>
       <c r="BB7" s="8"/>
       <c r="BD7" s="81"/>

--- a/pareto/case_studies/strategic_treatment_demo_modified.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javal\Desktop\Internship\PARETO\project-pareto_forked\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13D80-3062-42A3-875A-0394E8CC90E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0DB57-33B6-4908-9FFB-0B7778F8DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="906" firstSheet="58" activeTab="62" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="905" firstSheet="62" activeTab="62" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4754,7 +4754,7 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -31369,8 +31369,8 @@
   </sheetPr>
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:BA6"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BA7" sqref="B7:BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -31875,160 +31875,160 @@
         <v>123</v>
       </c>
       <c r="B5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AB5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AE5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AF5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AG5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AI5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AK5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AL5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AM5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AN5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AP5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AV5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AW5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AX5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AY5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AZ5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="BA5" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -32198,160 +32198,160 @@
         <v>125</v>
       </c>
       <c r="B7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="R7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="T7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="U7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="V7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AA7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AB7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AC7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AE7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AF7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AG7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AH7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AI7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AJ7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AK7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AL7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AM7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AN7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AO7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AP7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AQ7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AS7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AT7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AU7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AV7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AW7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AX7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AY7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AZ7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="BA7" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="BB7" s="8"/>
       <c r="BD7" s="81"/>
@@ -36673,7 +36673,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -36735,7 +36735,7 @@
       <c r="D4" s="36">
         <v>999</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="47">
         <v>999</v>
       </c>
     </row>
@@ -36747,13 +36747,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="36">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="D5" s="36">
-        <v>99999</v>
-      </c>
-      <c r="E5" s="37">
-        <v>99999</v>
+        <v>999</v>
+      </c>
+      <c r="E5" s="47">
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -36764,13 +36764,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="36">
-        <v>99999</v>
+        <v>999</v>
       </c>
       <c r="D6" s="36">
-        <v>99999</v>
-      </c>
-      <c r="E6" s="37">
-        <v>99999</v>
+        <v>999</v>
+      </c>
+      <c r="E6" s="47">
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -36780,14 +36780,14 @@
       <c r="B7" s="46">
         <v>20</v>
       </c>
-      <c r="C7" s="38">
-        <v>20</v>
-      </c>
-      <c r="D7" s="38">
-        <v>99999</v>
-      </c>
-      <c r="E7" s="39">
-        <v>99999</v>
+      <c r="C7" s="36">
+        <v>999</v>
+      </c>
+      <c r="D7" s="36">
+        <v>999</v>
+      </c>
+      <c r="E7" s="47">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
